--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3548.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3548.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.719728911152254</v>
+        <v>0.3452351689338684</v>
       </c>
       <c r="B1">
-        <v>1.771392354873466</v>
+        <v>0.3323192894458771</v>
       </c>
       <c r="C1">
-        <v>1.829723032521908</v>
+        <v>0.3397984802722931</v>
       </c>
       <c r="D1">
-        <v>2.439792289714584</v>
+        <v>0.4460178315639496</v>
       </c>
       <c r="E1">
-        <v>3.90485421405004</v>
+        <v>0.6353998780250549</v>
       </c>
     </row>
   </sheetData>
